--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P10_trail9 Features.xlsx
@@ -3639,7 +3639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3650,29 +3650,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3693,115 +3691,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3818,72 +3806,66 @@
         <v>1.36326285548127e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.4424714094031944</v>
+        <v>6.313500024958947e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.6167283513189759</v>
+        <v>2.370226526009519e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.313500024958947e-08</v>
+        <v>-0.05755996364936693</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.370226526009519e-06</v>
+        <v>0.5014425890344543</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.05755996364936693</v>
+        <v>0.2542027654749743</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.5014425890344543</v>
+        <v>1.829258893418293</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.2542027654749743</v>
+        <v>1.897225512427325</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.777021144248278</v>
+        <v>4.165580579619993</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.897225512427325</v>
+        <v>7.909834824945778e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.165580579619993</v>
+        <v>209800071.9594509</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.909834824945778e-16</v>
+        <v>5.633073144776009e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>209800071.9594509</v>
+        <v>34.8159844879268</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.633073144776009e-07</v>
+        <v>0.0001146873463143285</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>34.8159844879268</v>
+        <v>7.490617616282866</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001146873463143285</v>
+        <v>1.426047356831941</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.490617616282866</v>
+        <v>0.00643503271564832</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.426047356831941</v>
+        <v>3.138758673322698</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00643503271564832</v>
+        <v>0.9605376331874644</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.138758673322698</v>
+        <v>1.635227874250423</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9605376331874644</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.635227874250423</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2884519744801748</v>
       </c>
     </row>
@@ -3898,72 +3880,66 @@
         <v>1.350919445400607e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.431922920866118</v>
+        <v>4.722570687495075e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7369802070644074</v>
+        <v>2.369663349430388e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.722570687495075e-08</v>
+        <v>-0.02844911745660119</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.369663349430388e-06</v>
+        <v>0.409789817689572</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02844911745660119</v>
+        <v>0.1684784597373493</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.409789817689572</v>
+        <v>1.828124157751096</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1684784597373493</v>
+        <v>1.85788117380511</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.776117456778758</v>
+        <v>4.192550694650032</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.85788117380511</v>
+        <v>7.808396339548385e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.192550694650032</v>
+        <v>210681051.5669951</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.808396339548385e-16</v>
+        <v>5.606310950081214e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>210681051.5669951</v>
+        <v>34.65874269885788</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.606310950081214e-07</v>
+        <v>0.0001121626445343108</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>34.65874269885788</v>
+        <v>7.336164869295163</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001121626445343108</v>
+        <v>1.516281980140546</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.336164869295163</v>
+        <v>0.00603651669624521</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.516281980140546</v>
+        <v>3.226312310098628</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00603651669624521</v>
+        <v>0.9595631630520329</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.226312310098628</v>
+        <v>1.660752871869109</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9595631630520329</v>
+        <v>64</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.660752871869109</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3024223985440835</v>
       </c>
     </row>
@@ -3978,72 +3954,66 @@
         <v>1.378611380940515e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.4225291970808197</v>
+        <v>4.734066414207164e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.8147263621725496</v>
+        <v>2.369396074445691e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.734066414207164e-08</v>
+        <v>-0.01320319323564686</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.369396074445691e-06</v>
+        <v>0.3619705665599374</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01320319323564686</v>
+        <v>0.1311015080757858</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3619705665599374</v>
+        <v>1.825515254690441</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1311015080757858</v>
+        <v>1.790846643755421</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.773457648338908</v>
+        <v>4.28093820286814</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.790846643755421</v>
+        <v>7.489288783923974e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.28093820286814</v>
+        <v>218195816.0015854</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.489288783923974e-16</v>
+        <v>5.402118845014303e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>218195816.0015854</v>
+        <v>35.65606511825842</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.402118845014303e-07</v>
+        <v>0.0001175611271535713</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>35.65606511825842</v>
+        <v>8.73905742360755</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001175611271535713</v>
+        <v>1.653549325957443</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.73905742360755</v>
+        <v>0.008978275496205532</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.653549325957443</v>
+        <v>3.186645844202698</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008978275496205532</v>
+        <v>0.9597313227385638</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.186645844202698</v>
+        <v>1.644640893685028</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9597313227385638</v>
+        <v>66</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.644640893685028</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.327727361247021</v>
       </c>
     </row>
@@ -4058,72 +4028,66 @@
         <v>1.405707492047763e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.4747891394519912</v>
+        <v>5.432253366659201e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.7258822405145686</v>
+        <v>2.369250604933834e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.432253366659201e-08</v>
+        <v>-0.009663832522595457</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.369250604933834e-06</v>
+        <v>0.3484813519510532</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.009663832522595457</v>
+        <v>0.1215135351220484</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3484813519510532</v>
+        <v>1.827631011106652</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1215135351220484</v>
+        <v>1.769662914297303</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.777930311589068</v>
+        <v>4.433789556557395</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.769662914297303</v>
+        <v>6.981815084879376e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.433789556557395</v>
+        <v>237822398.0933301</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.981815084879376e-16</v>
+        <v>4.973790307573558e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>237822398.0933301</v>
+        <v>39.48879216639322</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.973790307573558e-07</v>
+        <v>0.0001126263588547012</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>39.48879216639322</v>
+        <v>7.866753203817946</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001126263588547012</v>
+        <v>1.412376548923308</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.866753203817946</v>
+        <v>0.006969972991164843</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.412376548923308</v>
+        <v>3.162035062290479</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006969972991164843</v>
+        <v>0.960344578407518</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.162035062290479</v>
+        <v>1.629115106245471</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.960344578407518</v>
+        <v>66</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.629115106245471</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3282445944253294</v>
       </c>
     </row>
@@ -4138,72 +4102,66 @@
         <v>1.443168675129712e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5726625123299915</v>
+        <v>5.943724464040965e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4798881442313583</v>
+        <v>2.36908045779094e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.943724464040965e-08</v>
+        <v>-0.01540661202254013</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.36908045779094e-06</v>
+        <v>0.3416159774836734</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01540661202254013</v>
+        <v>0.1169291301271844</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3416159774836734</v>
+        <v>1.827935540554506</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1169291301271844</v>
+        <v>1.709931869528007</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.778795027204936</v>
+        <v>4.707948942567814</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.709931869528007</v>
+        <v>6.192343021433378e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.707948942567814</v>
+        <v>267314342.5030275</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.192343021433378e-16</v>
+        <v>4.423965270495821e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>267314342.5030275</v>
+        <v>44.24859933949157</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.423965270495821e-07</v>
+        <v>0.0001108831078739655</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>44.24859933949157</v>
+        <v>7.327730490989644</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001108831078739655</v>
+        <v>1.252231129163881</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.327730490989644</v>
+        <v>0.005953938793657911</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.252231129163881</v>
+        <v>3.196192404940758</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005953938793657911</v>
+        <v>0.961221521149928</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.196192404940758</v>
+        <v>1.663161095308732</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.961221521149928</v>
+        <v>66</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.663161095308732</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.320244042331143</v>
       </c>
     </row>
@@ -4218,72 +4176,66 @@
         <v>1.505338144664243e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.7051766251241873</v>
+        <v>6.205096621394868e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.1726278043330409</v>
+        <v>2.368784313484927e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.205096621394868e-08</v>
+        <v>-0.02503840210829484</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.368784313484927e-06</v>
+        <v>0.3224151791440899</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02503840210829484</v>
+        <v>0.1045547811208608</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3224151791440899</v>
+        <v>1.863397628302703</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1045547811208608</v>
+        <v>2.095704336316975</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.831998199075415</v>
+        <v>3.977018654619182</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.095704336316975</v>
+        <v>6.010433372029978e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.977018654619182</v>
+        <v>278807139.1157662</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.010433372029978e-16</v>
+        <v>4.285015945340358e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>278807139.1157662</v>
+        <v>46.7211546630107</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.285015945340358e-07</v>
+        <v>0.000112632490854629</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>46.7211546630107</v>
+        <v>7.454300804931671</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000112632490854629</v>
+        <v>1.276161612551789</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.454300804931671</v>
+        <v>0.00625860462155836</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.276161612551789</v>
+        <v>3.207071618518305</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00625860462155836</v>
+        <v>0.9639742678592359</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.207071618518305</v>
+        <v>1.577697459436605</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9639742678592359</v>
+        <v>65</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.577697459436605</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3404741325055925</v>
       </c>
     </row>
@@ -4660,7 +4612,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.824466111429463</v>
+        <v>1.846732093193623</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.306359866095243</v>
@@ -4749,7 +4701,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.842497220225629</v>
+        <v>1.865566416761496</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.644274004626106</v>
@@ -4838,7 +4790,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.837841742719871</v>
+        <v>1.866654077174333</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.29860370851562</v>
@@ -4927,7 +4879,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.829853410637681</v>
+        <v>1.859188824905762</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.896214210279425</v>
@@ -5016,7 +4968,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.866628571113811</v>
+        <v>1.893096767388672</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.19134487489497</v>
@@ -5105,7 +5057,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.860233827722064</v>
+        <v>1.890930920591716</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.050945752265876</v>
@@ -5194,7 +5146,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.866294510490513</v>
+        <v>1.893652008638145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.900770201891752</v>
@@ -5283,7 +5235,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.879184107117669</v>
+        <v>1.904523486459353</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.469870168054999</v>
@@ -5372,7 +5324,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.875836343718035</v>
+        <v>1.90279546235764</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.26310701464753</v>
@@ -5461,7 +5413,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.870227975291784</v>
+        <v>1.889388737631677</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.424855271750092</v>
@@ -5550,7 +5502,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.852956528833283</v>
+        <v>1.879595577562158</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.288288605399246</v>
@@ -5639,7 +5591,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.852711671887006</v>
+        <v>1.874744243226669</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.166203690957082</v>
@@ -5728,7 +5680,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.867427399673979</v>
+        <v>1.887483969627805</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.678094946474874</v>
@@ -5817,7 +5769,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.888668926888288</v>
+        <v>1.91083888606785</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.951364051111683</v>
@@ -5906,7 +5858,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.884259189403313</v>
+        <v>1.901669178500363</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.916348050585956</v>
@@ -5995,7 +5947,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.870763538348001</v>
+        <v>1.890812907104083</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.015733824487748</v>
@@ -6084,7 +6036,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.867906328035661</v>
+        <v>1.884940657592207</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.531182052641143</v>
@@ -6173,7 +6125,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.869340331638093</v>
+        <v>1.885215828744327</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.024469632520155</v>
@@ -6262,7 +6214,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.869360774449664</v>
+        <v>1.888352805055153</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.987790982201235</v>
@@ -6351,7 +6303,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.858192152986635</v>
+        <v>1.879193757789067</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.700786486360993</v>
@@ -6440,7 +6392,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.865413114063933</v>
+        <v>1.889762838599561</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.625990956884653</v>
@@ -6529,7 +6481,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.872664779561011</v>
+        <v>1.89863859408521</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.077964033595171</v>
@@ -6618,7 +6570,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.873386170412217</v>
+        <v>1.898342672014137</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.106387234359818</v>
@@ -6707,7 +6659,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.874888914516157</v>
+        <v>1.89865989595048</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.289452403497694</v>
@@ -6796,7 +6748,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.896237177521011</v>
+        <v>1.926078897736457</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.240942059448577</v>
@@ -6885,7 +6837,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.905421563155533</v>
+        <v>1.92890915651149</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.979968487160469</v>
@@ -6974,7 +6926,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.90548894199272</v>
+        <v>1.930953912754697</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.360021263059315</v>
@@ -7063,7 +7015,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.892371098884837</v>
+        <v>1.918351919548928</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.99312223459009</v>
@@ -7152,7 +7104,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.845464688620192</v>
+        <v>1.879608488860326</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.355527411420489</v>
@@ -7241,7 +7193,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.826637208463189</v>
+        <v>1.859835110169981</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.266577170211507</v>
@@ -7330,7 +7282,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.826030172243173</v>
+        <v>1.857096594204858</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.035004030099143</v>
@@ -7419,7 +7371,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.808927966727099</v>
+        <v>1.837932978650316</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.381405289157979</v>
@@ -7508,7 +7460,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.79009698271174</v>
+        <v>1.816508783506093</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.200501092618172</v>
@@ -7597,7 +7549,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.749077662636514</v>
+        <v>1.768777811360443</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.802850316398448</v>
@@ -7686,7 +7638,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.733839419700158</v>
+        <v>1.752558641271078</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.089142307510765</v>
@@ -7775,7 +7727,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.712349973467659</v>
+        <v>1.731480214118642</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.076064285754987</v>
@@ -7864,7 +7816,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.700832400614675</v>
+        <v>1.713171378780482</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.119559971103356</v>
@@ -7953,7 +7905,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.667928467554792</v>
+        <v>1.675088657361141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.066210177629534</v>
@@ -8042,7 +7994,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.672180665873038</v>
+        <v>1.675244053995481</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.077601566001707</v>
@@ -8131,7 +8083,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654843595950388</v>
+        <v>1.654851593576127</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.9733967660998</v>
@@ -8220,7 +8172,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.653236261335335</v>
+        <v>1.649987287146585</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.960120366620056</v>
@@ -8309,7 +8261,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.649440296033029</v>
+        <v>1.648180837453475</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.768916463794316</v>
@@ -8398,7 +8350,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.677554510182052</v>
+        <v>1.674373221095597</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.447599602303983</v>
@@ -8487,7 +8439,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.729897103716758</v>
+        <v>1.722601733375051</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.92692095242286</v>
@@ -8576,7 +8528,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.763973542980465</v>
+        <v>1.764486015512243</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.981203343275186</v>
@@ -8665,7 +8617,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.782805329945965</v>
+        <v>1.784452857569666</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.188228764391915</v>
@@ -8754,7 +8706,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.810415484141024</v>
+        <v>1.813731415021543</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.276183026229961</v>
@@ -8843,7 +8795,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.821308873838048</v>
+        <v>1.831374360694195</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.492374671115321</v>
@@ -8932,7 +8884,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.87402101246757</v>
+        <v>1.874162964400424</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.65924133342117</v>
@@ -9021,7 +8973,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.896967642194519</v>
+        <v>1.895320698419751</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.004728221624467</v>
@@ -9110,7 +9062,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.912547933137672</v>
+        <v>1.914451516424834</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.755388034409785</v>
@@ -9396,7 +9348,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.75612129721434</v>
+        <v>1.752249086408179</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.457200579879945</v>
@@ -9485,7 +9437,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.754296579523847</v>
+        <v>1.74751538971783</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.239981506320484</v>
@@ -9574,7 +9526,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.761484755912954</v>
+        <v>1.752553475108919</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.498728495880484</v>
@@ -9663,7 +9615,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.733849527414068</v>
+        <v>1.720504487212008</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.199215909265961</v>
@@ -9752,7 +9704,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735640013836147</v>
+        <v>1.72263777053835</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.212985220509052</v>
@@ -9841,7 +9793,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.75785503052339</v>
+        <v>1.744048080838992</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.367585564991457</v>
@@ -9930,7 +9882,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.785159844044313</v>
+        <v>1.761686575103836</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.903086587993686</v>
@@ -10019,7 +9971,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.792630797548375</v>
+        <v>1.764992708922868</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.015876578320423</v>
@@ -10108,7 +10060,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.800422180834852</v>
+        <v>1.772323772841681</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.999736204155513</v>
@@ -10197,7 +10149,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.797077334420587</v>
+        <v>1.772846810398333</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.315648498210261</v>
@@ -10286,7 +10238,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.760473709229459</v>
+        <v>1.740470731168523</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.218903675858987</v>
@@ -10375,7 +10327,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.76477046904933</v>
+        <v>1.746787891426767</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.191895037998457</v>
@@ -10464,7 +10416,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.769776185719311</v>
+        <v>1.756213819497718</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.859115657075913</v>
@@ -10553,7 +10505,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.767938452446173</v>
+        <v>1.751256745011549</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.073906743541157</v>
@@ -10642,7 +10594,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.7623823721565</v>
+        <v>1.748940703118731</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.147263733763503</v>
@@ -10731,7 +10683,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.750061953223902</v>
+        <v>1.73531623554667</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.163416648945562</v>
@@ -10820,7 +10772,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.749571179324236</v>
+        <v>1.728998816570404</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.127727004640266</v>
@@ -10909,7 +10861,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.752935071723466</v>
+        <v>1.733821461604047</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.143244348214568</v>
@@ -10998,7 +10950,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.763148709424799</v>
+        <v>1.744549332352981</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.15875281579401</v>
@@ -11087,7 +11039,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.753603852205132</v>
+        <v>1.732805143554433</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.250746189654663</v>
@@ -11176,7 +11128,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.75494784147728</v>
+        <v>1.73946461660921</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.115688114979579</v>
@@ -11265,7 +11217,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.753091469590072</v>
+        <v>1.738964825576335</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.241810123809321</v>
@@ -11354,7 +11306,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.752291550212001</v>
+        <v>1.739167401553709</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.026293734330181</v>
@@ -11443,7 +11395,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.760657540962656</v>
+        <v>1.74336738381081</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.041465669732382</v>
@@ -11532,7 +11484,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.777744589032257</v>
+        <v>1.759586172756486</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.626923692033035</v>
@@ -11621,7 +11573,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.807405825305134</v>
+        <v>1.787268369249312</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.608175749365393</v>
@@ -11710,7 +11662,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.783876355075066</v>
+        <v>1.770209290339247</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.453454450971028</v>
@@ -11799,7 +11751,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.772286808046575</v>
+        <v>1.763636082598959</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.41257623357363</v>
@@ -11888,7 +11840,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.7778203220362</v>
+        <v>1.764716874725543</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.165539486949615</v>
@@ -11977,7 +11929,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773086122520621</v>
+        <v>1.760487255795314</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.495088516815346</v>
@@ -12066,7 +12018,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.782331110767561</v>
+        <v>1.774212796858429</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.3663181593792</v>
@@ -12155,7 +12107,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.780615754725415</v>
+        <v>1.780419681279089</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.389550639990855</v>
@@ -12244,7 +12196,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.774474717166434</v>
+        <v>1.771719521487554</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.53428986112996</v>
@@ -12333,7 +12285,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.760289406867509</v>
+        <v>1.756784979268544</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.228234752790724</v>
@@ -12422,7 +12374,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.781497578591308</v>
+        <v>1.776721781187368</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.631147085038386</v>
@@ -12511,7 +12463,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.77999644621502</v>
+        <v>1.775660311328588</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.436194871073465</v>
@@ -12600,7 +12552,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.791952764015344</v>
+        <v>1.783012259977855</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.551150625302177</v>
@@ -12689,7 +12641,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.785192826549642</v>
+        <v>1.77725809350691</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.694873143837708</v>
@@ -12778,7 +12730,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.78587331869624</v>
+        <v>1.780386962798465</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.487127722176368</v>
@@ -12867,7 +12819,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.780083925937531</v>
+        <v>1.775243816811636</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.636116324075021</v>
@@ -12956,7 +12908,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.786006061876343</v>
+        <v>1.774777615444304</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.291849103917617</v>
@@ -13045,7 +12997,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.805337223271123</v>
+        <v>1.792145233124168</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.849358932250735</v>
@@ -13134,7 +13086,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.815698564361578</v>
+        <v>1.797306989024252</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.033780590287763</v>
@@ -13223,7 +13175,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.809848241854867</v>
+        <v>1.794436687559778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.693924057085956</v>
@@ -13312,7 +13264,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.821153597965961</v>
+        <v>1.803203369523591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.246406457945454</v>
@@ -13401,7 +13353,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.828110797922546</v>
+        <v>1.806462318198087</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.053521984792614</v>
@@ -13490,7 +13442,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.823421233765593</v>
+        <v>1.804909355059439</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.86565693511628</v>
@@ -13579,7 +13531,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.827170590193678</v>
+        <v>1.812045847804365</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.199901987308548</v>
@@ -13668,7 +13620,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.849577022916285</v>
+        <v>1.829748407084849</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.191003181010934</v>
@@ -13757,7 +13709,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.852042184075632</v>
+        <v>1.836428035074553</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.305788834609936</v>
@@ -13846,7 +13798,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.852801787587132</v>
+        <v>1.83456613774787</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.287450504662841</v>
@@ -14132,7 +14084,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.706440641666646</v>
+        <v>1.704597917686983</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.542710959052562</v>
@@ -14221,7 +14173,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.692463326144767</v>
+        <v>1.688959808413982</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.304920749369917</v>
@@ -14310,7 +14262,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.695908778163654</v>
+        <v>1.692027021028786</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.626990830104</v>
@@ -14399,7 +14351,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.67104584202503</v>
+        <v>1.667568229766041</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.07948915714196</v>
@@ -14488,7 +14440,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.701940966608412</v>
+        <v>1.696032102382642</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.382432431394785</v>
@@ -14577,7 +14529,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.70466544875715</v>
+        <v>1.702137621682111</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.683518308927064</v>
@@ -14666,7 +14618,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.701636682089201</v>
+        <v>1.697055912380941</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.317122170292831</v>
@@ -14755,7 +14707,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.701236523531327</v>
+        <v>1.696511018350755</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.667279476311869</v>
@@ -14844,7 +14796,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.697488285989488</v>
+        <v>1.699036027245415</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.602701169169835</v>
@@ -14933,7 +14885,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.704207276885853</v>
+        <v>1.698048095809237</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.744403546311426</v>
@@ -15022,7 +14974,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.698929587166745</v>
+        <v>1.693158620610062</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.45193064284812</v>
@@ -15111,7 +15063,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.696261551440305</v>
+        <v>1.69014959088758</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.521994301514588</v>
@@ -15200,7 +15152,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.710291871623954</v>
+        <v>1.703088234179386</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.00484107619168</v>
@@ -15289,7 +15241,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.706889803848515</v>
+        <v>1.703172237243123</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.342757063742585</v>
@@ -15378,7 +15330,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.708381099896929</v>
+        <v>1.703339882107492</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.420603829988893</v>
@@ -15467,7 +15419,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.683939701280021</v>
+        <v>1.680343571865941</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.840025157483099</v>
@@ -15556,7 +15508,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705725349921002</v>
+        <v>1.700204491764774</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.814907479227738</v>
@@ -15645,7 +15597,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.697917461735164</v>
+        <v>1.69157196912294</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.737991219499967</v>
@@ -15734,7 +15686,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.700404109261038</v>
+        <v>1.69385319973569</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.658065213928861</v>
@@ -15823,7 +15775,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.695246453609168</v>
+        <v>1.685967002724144</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.70045616270252</v>
@@ -15912,7 +15864,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.693575925650842</v>
+        <v>1.68658666662983</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.774924804963158</v>
@@ -16001,7 +15953,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704003593223021</v>
+        <v>1.69675081637964</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.659058994311938</v>
@@ -16090,7 +16042,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.705538797954361</v>
+        <v>1.704416551253187</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.663525813239981</v>
@@ -16179,7 +16131,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.712198299908066</v>
+        <v>1.704292785235524</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.608412664758752</v>
@@ -16268,7 +16220,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.718606309789296</v>
+        <v>1.711978723764831</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.84753944711846</v>
@@ -16357,7 +16309,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730846272791857</v>
+        <v>1.72494720649985</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.855973517267581</v>
@@ -16446,7 +16398,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.724210448178771</v>
+        <v>1.720340487531131</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.853722769339168</v>
@@ -16535,7 +16487,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.730595232292782</v>
+        <v>1.723155316751547</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.711426348798701</v>
@@ -16624,7 +16576,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.725925717143734</v>
+        <v>1.718620298467027</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.896879018443009</v>
@@ -16713,7 +16665,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.712960434146233</v>
+        <v>1.702504128744522</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.618370880544473</v>
@@ -16802,7 +16754,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.723516398506971</v>
+        <v>1.713494312506578</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.872136114264801</v>
@@ -16891,7 +16843,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.718870477641073</v>
+        <v>1.706478117433893</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.882994687196913</v>
@@ -16980,7 +16932,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719714501228906</v>
+        <v>1.705142873945116</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.717532938854553</v>
@@ -17069,7 +17021,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.704282302887578</v>
+        <v>1.692026106515837</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.097380175775447</v>
@@ -17158,7 +17110,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.691699597959665</v>
+        <v>1.678511281640638</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.455334835138009</v>
@@ -17247,7 +17199,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.688448901902984</v>
+        <v>1.670285825261972</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.534033699945275</v>
@@ -17336,7 +17288,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685206713957723</v>
+        <v>1.664665758335915</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.652676107393759</v>
@@ -17425,7 +17377,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.678657737573997</v>
+        <v>1.657829436492332</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.472904155615127</v>
@@ -17514,7 +17466,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.684703069242118</v>
+        <v>1.664475091125374</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.996144099159539</v>
@@ -17603,7 +17555,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.670892103459708</v>
+        <v>1.65305219910068</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.660462292136427</v>
@@ -17692,7 +17644,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.668048202382372</v>
+        <v>1.650403926300351</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.956066745216711</v>
@@ -17781,7 +17733,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.679204925262585</v>
+        <v>1.660636940613937</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.428310675156871</v>
@@ -17870,7 +17822,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.676151270004011</v>
+        <v>1.656025608486006</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.556455937365513</v>
@@ -17959,7 +17911,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689791572151994</v>
+        <v>1.668413504879352</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.317107284905307</v>
@@ -18048,7 +18000,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.713579890467207</v>
+        <v>1.689753102642512</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.489420899196335</v>
@@ -18137,7 +18089,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721949541017302</v>
+        <v>1.694020887391747</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.850607060912232</v>
@@ -18226,7 +18178,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.730426003613767</v>
+        <v>1.708111004437031</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.402500524158365</v>
@@ -18315,7 +18267,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.714516056775265</v>
+        <v>1.696409802264423</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.631632536393905</v>
@@ -18404,7 +18356,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.748958330093729</v>
+        <v>1.725585291145227</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.938919737302289</v>
@@ -18493,7 +18445,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.768945800529852</v>
+        <v>1.753357804920482</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.902597964593746</v>
@@ -18582,7 +18534,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.781386468924995</v>
+        <v>1.763139527341292</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.777015143222841</v>
@@ -18868,7 +18820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.556550472542211</v>
+        <v>1.571356148997732</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.714799049688237</v>
@@ -18957,7 +18909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.55567688455113</v>
+        <v>1.574520826026928</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.666137705011719</v>
@@ -19046,7 +18998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570050060128344</v>
+        <v>1.588049964966427</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.655880880437541</v>
@@ -19135,7 +19087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.560893801886166</v>
+        <v>1.575506316340442</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.786259921805821</v>
@@ -19224,7 +19176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.589998090991525</v>
+        <v>1.602112298578015</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.809599904495007</v>
@@ -19313,7 +19265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.594788298753163</v>
+        <v>1.608115419800465</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.556286401095269</v>
@@ -19402,7 +19354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623550638700301</v>
+        <v>1.635698767517147</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.737074170902628</v>
@@ -19491,7 +19443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.616430027356027</v>
+        <v>1.633898230864382</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.744013557479495</v>
@@ -19580,7 +19532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600352868834</v>
+        <v>1.614906340226947</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.410607979498516</v>
@@ -19669,7 +19621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.598920906797606</v>
+        <v>1.615842627098986</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.578157282216999</v>
@@ -19758,7 +19710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.58016950102252</v>
+        <v>1.596397399095353</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.55568840386894</v>
@@ -19847,7 +19799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.598084885164674</v>
+        <v>1.613242647496073</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.229350423879636</v>
@@ -19936,7 +19888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.614144403579749</v>
+        <v>1.630422011919872</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.489336019322952</v>
@@ -20025,7 +19977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.609662856229713</v>
+        <v>1.62841870549654</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.63640222152667</v>
@@ -20114,7 +20066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.593550094330506</v>
+        <v>1.613371906889271</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.705387100466581</v>
@@ -20203,7 +20155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.59312203759131</v>
+        <v>1.608385993435085</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.391356572394796</v>
@@ -20292,7 +20244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.597149973219607</v>
+        <v>1.611562979537843</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.529361959297328</v>
@@ -20381,7 +20333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.574755442188002</v>
+        <v>1.591604169674552</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.563021266131934</v>
@@ -20470,7 +20422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.575057378045114</v>
+        <v>1.590602608522008</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.580652956318137</v>
@@ -20559,7 +20511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.548117435423192</v>
+        <v>1.561494421581004</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.557737857234156</v>
@@ -20648,7 +20600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.54788738764232</v>
+        <v>1.560132805931761</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.611960064895815</v>
@@ -20737,7 +20689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534646171670603</v>
+        <v>1.547396341794582</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.469723367836639</v>
@@ -20826,7 +20778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.541201942407106</v>
+        <v>1.553854892070103</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.498758527938985</v>
@@ -20915,7 +20867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569209602505142</v>
+        <v>1.575414938975498</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.437982790630383</v>
@@ -21004,7 +20956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.552653206374014</v>
+        <v>1.565088932457566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.792492637566785</v>
@@ -21093,7 +21045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.564627629785996</v>
+        <v>1.579017884453922</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.745280590981184</v>
@@ -21182,7 +21134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.54096624868377</v>
+        <v>1.561215000801639</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.764552185349605</v>
@@ -21271,7 +21223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53472576814111</v>
+        <v>1.553731285232813</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.620061078571859</v>
@@ -21360,7 +21312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.529712723050841</v>
+        <v>1.547047953798368</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.821847005919748</v>
@@ -21449,7 +21401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542452850573265</v>
+        <v>1.554049884892999</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.757702428765876</v>
@@ -21538,7 +21490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550165668816992</v>
+        <v>1.564714624961734</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.797840652984254</v>
@@ -21627,7 +21579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.543260464581503</v>
+        <v>1.558055713707508</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.714453069705433</v>
@@ -21716,7 +21668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555553391346958</v>
+        <v>1.568201210563247</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.552568565289806</v>
@@ -21805,7 +21757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.52271685835463</v>
+        <v>1.539414003422761</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.833658668607086</v>
@@ -21894,7 +21846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.53767783805455</v>
+        <v>1.557528705320975</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.691713205229339</v>
@@ -21983,7 +21935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.522815449445881</v>
+        <v>1.542557695372291</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.611023314824057</v>
@@ -22072,7 +22024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.524822104873538</v>
+        <v>1.542275066179652</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.649175019021161</v>
@@ -22161,7 +22113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.499564859889408</v>
+        <v>1.515760444464566</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.669099058866909</v>
@@ -22250,7 +22202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.494798001629154</v>
+        <v>1.518124577384892</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.45719619590646</v>
@@ -22339,7 +22291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.485067898854265</v>
+        <v>1.51612524390711</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.491756326049982</v>
@@ -22428,7 +22380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482143672706947</v>
+        <v>1.513295172834207</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.347508210970454</v>
@@ -22517,7 +22469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499439430656459</v>
+        <v>1.527484109516414</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.429216167496923</v>
@@ -22606,7 +22558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.496795588587689</v>
+        <v>1.526725798639104</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.359523975681805</v>
@@ -22695,7 +22647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.502686885254798</v>
+        <v>1.533084749437049</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.464308001564611</v>
@@ -22784,7 +22736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.488300203124925</v>
+        <v>1.522250835238343</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.435347384771522</v>
@@ -22873,7 +22825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.500790620869733</v>
+        <v>1.533105046166999</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.458951557074067</v>
@@ -22962,7 +22914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.514488056477121</v>
+        <v>1.546335594967299</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.419580466514293</v>
@@ -23051,7 +23003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.51252286261368</v>
+        <v>1.545630006321305</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.486194494505156</v>
@@ -23140,7 +23092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551896883154635</v>
+        <v>1.580514308471191</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.702999480284341</v>
@@ -23229,7 +23181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.565217725572617</v>
+        <v>1.59481458140739</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.648843485173811</v>
@@ -23318,7 +23270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.584739315391616</v>
+        <v>1.615231314082003</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.591619440161746</v>
@@ -23604,7 +23556,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.673469911091454</v>
+        <v>1.661998889848167</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.117638335259002</v>
@@ -23693,7 +23645,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.677207240901676</v>
+        <v>1.664020372338856</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.695857834498862</v>
@@ -23782,7 +23734,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.681985755648446</v>
+        <v>1.662970886879668</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.942940681921722</v>
@@ -23871,7 +23823,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.662859301691592</v>
+        <v>1.636169238108198</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.499213087614704</v>
@@ -23960,7 +23912,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.670646259276219</v>
+        <v>1.648407371572191</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.577440471380891</v>
@@ -24049,7 +24001,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.690030251646568</v>
+        <v>1.664955610314448</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.883005670754072</v>
@@ -24138,7 +24090,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.719654721398584</v>
+        <v>1.680766169352552</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.223290628565557</v>
@@ -24227,7 +24179,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.726821184832764</v>
+        <v>1.692592042397939</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.687724611442056</v>
@@ -24316,7 +24268,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.733266088253369</v>
+        <v>1.696997964267992</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.398408104776359</v>
@@ -24405,7 +24357,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.735078939301157</v>
+        <v>1.70178234334468</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.057115468628192</v>
@@ -24494,7 +24446,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.68852115661809</v>
+        <v>1.659876033515395</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.009426575133213</v>
@@ -24583,7 +24535,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.698902195748322</v>
+        <v>1.669378283262652</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.933462810180201</v>
@@ -24672,7 +24624,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.708351122426066</v>
+        <v>1.674316624233892</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.917909345916844</v>
@@ -24761,7 +24713,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685744236912758</v>
+        <v>1.657413410481018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.774414601844286</v>
@@ -24850,7 +24802,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681617316849163</v>
+        <v>1.659344341727363</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.901572579825439</v>
@@ -24939,7 +24891,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.672274655979523</v>
+        <v>1.655036956668241</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.877901049094031</v>
@@ -25028,7 +24980,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.676154574773414</v>
+        <v>1.661623612904902</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.740199788221365</v>
@@ -25117,7 +25069,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.671200271295623</v>
+        <v>1.660271334615176</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.743831254011153</v>
@@ -25206,7 +25158,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.68070158788837</v>
+        <v>1.667050392108231</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.991321026060202</v>
@@ -25295,7 +25247,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680266116399079</v>
+        <v>1.66095534664593</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.932684189462655</v>
@@ -25384,7 +25336,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.678692565343723</v>
+        <v>1.660372387480921</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.892384080473373</v>
@@ -25473,7 +25425,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.678330264692542</v>
+        <v>1.661527382145352</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.001181093224871</v>
@@ -25562,7 +25514,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.680261240727725</v>
+        <v>1.665528012672286</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.951433393336283</v>
@@ -25651,7 +25603,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.675983093797474</v>
+        <v>1.660028672918877</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.990874110509197</v>
@@ -25740,7 +25692,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.692594329387358</v>
+        <v>1.678110290851006</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.493995217308458</v>
@@ -25829,7 +25781,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.71785763059302</v>
+        <v>1.704476498727379</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.901038540766744</v>
@@ -25918,7 +25870,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708414877204025</v>
+        <v>1.696859964493333</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.901027745775403</v>
@@ -26007,7 +25959,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.701617710406701</v>
+        <v>1.691747135219029</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.881262536097349</v>
@@ -26096,7 +26048,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.71762395907698</v>
+        <v>1.704469307220649</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.030018796104192</v>
@@ -26185,7 +26137,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.705467351773636</v>
+        <v>1.692719369680703</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.025634603039914</v>
@@ -26274,7 +26226,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.713941911095111</v>
+        <v>1.697710112322673</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.24242673572349</v>
@@ -26363,7 +26315,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.708698957683592</v>
+        <v>1.693784491635667</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.312768858299095</v>
@@ -26452,7 +26404,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.711657211474628</v>
+        <v>1.695726064528211</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.085543630912513</v>
@@ -26541,7 +26493,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.709857260599361</v>
+        <v>1.68740280223314</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.274380965098613</v>
@@ -26630,7 +26582,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.7134808532808</v>
+        <v>1.689715265609631</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.684647905299548</v>
@@ -26719,7 +26671,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.712696539452655</v>
+        <v>1.684653240173272</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.646664356604677</v>
@@ -26808,7 +26760,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.706567216311635</v>
+        <v>1.680457217786955</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.400651774565751</v>
@@ -26897,7 +26849,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.690771047656458</v>
+        <v>1.66428264270623</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.160542551300461</v>
@@ -26986,7 +26938,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.697569723248984</v>
+        <v>1.671229538300707</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.245586425629734</v>
@@ -27075,7 +27027,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.697111914219142</v>
+        <v>1.667124726459792</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.459028926610613</v>
@@ -27164,7 +27116,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.695504676808233</v>
+        <v>1.665019221297776</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.207675905750894</v>
@@ -27253,7 +27205,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.69932975385958</v>
+        <v>1.666589175894549</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.543238453260815</v>
@@ -27342,7 +27294,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.715273934979761</v>
+        <v>1.682154246791473</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.378738779469177</v>
@@ -27431,7 +27383,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.711060734507934</v>
+        <v>1.676856456666998</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.905122743518075</v>
@@ -27520,7 +27472,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.721136146338354</v>
+        <v>1.68594377239637</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.056165038895992</v>
@@ -27609,7 +27561,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.730364599338131</v>
+        <v>1.691381736027722</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.490161997894941</v>
@@ -27698,7 +27650,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732649385431998</v>
+        <v>1.694176288086105</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.225974772459112</v>
@@ -27787,7 +27739,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.720905301013671</v>
+        <v>1.686942445982308</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.177488107224475</v>
@@ -27876,7 +27828,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.724528577095569</v>
+        <v>1.695862621190179</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.812156749672131</v>
@@ -27965,7 +27917,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.732663093553241</v>
+        <v>1.706917880108065</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.219832923302695</v>
@@ -28054,7 +28006,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.736289356406956</v>
+        <v>1.71673159910652</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.243308592661701</v>
@@ -28340,7 +28292,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.462622230425963</v>
+        <v>1.469573828637353</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.872680846230119</v>
@@ -28429,7 +28381,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.484040048547105</v>
+        <v>1.493620818310138</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.855167355224953</v>
@@ -28518,7 +28470,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.479765376331212</v>
+        <v>1.492722076015402</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.92006496078978</v>
@@ -28607,7 +28559,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461345246022562</v>
+        <v>1.479951611821552</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.447924662235017</v>
@@ -28696,7 +28648,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.484635732257641</v>
+        <v>1.503904815750308</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.873973060774953</v>
@@ -28785,7 +28737,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.482375578157359</v>
+        <v>1.503790296173983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.66618333486055</v>
@@ -28874,7 +28826,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.491248364293072</v>
+        <v>1.509191292700244</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.671682014513043</v>
@@ -28963,7 +28915,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.491737342371707</v>
+        <v>1.512305291098849</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.717814235926475</v>
@@ -29052,7 +29004,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.494677550492421</v>
+        <v>1.514787451674112</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.930720087512305</v>
@@ -29141,7 +29093,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492677463041456</v>
+        <v>1.509312095257078</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.743834605859546</v>
@@ -29230,7 +29182,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458960663704801</v>
+        <v>1.477406013330198</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.514946092011559</v>
@@ -29319,7 +29271,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.466378043434064</v>
+        <v>1.484394552235691</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.580933181318789</v>
@@ -29408,7 +29360,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.464913129069748</v>
+        <v>1.484338450577781</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.356014563307993</v>
@@ -29497,7 +29449,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.481030802140614</v>
+        <v>1.501776627151916</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.438731821314911</v>
@@ -29586,7 +29538,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.482017389743174</v>
+        <v>1.499586997208859</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.494686603017378</v>
@@ -29675,7 +29627,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.469577191507756</v>
+        <v>1.489075559290955</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.708045933075578</v>
@@ -29764,7 +29716,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.475678560218543</v>
+        <v>1.493997286286508</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.740845253782595</v>
@@ -29853,7 +29805,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.471280445629345</v>
+        <v>1.486979682155335</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.47312125738306</v>
@@ -29942,7 +29894,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.47651830403065</v>
+        <v>1.493006174483702</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.607294550704501</v>
@@ -30031,7 +29983,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.479536013250174</v>
+        <v>1.495824609062181</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.341452297230556</v>
@@ -30120,7 +30072,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.48812322627499</v>
+        <v>1.503615223325176</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.463423957484297</v>
@@ -30209,7 +30161,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.48582694948498</v>
+        <v>1.506887307294118</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.660226586422054</v>
@@ -30298,7 +30250,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.49362943522635</v>
+        <v>1.514250172549899</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.374928200678382</v>
@@ -30387,7 +30339,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.495350253988014</v>
+        <v>1.512822004799122</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.595085536995827</v>
@@ -30476,7 +30428,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.507873409110862</v>
+        <v>1.5264943201842</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.310379286152722</v>
@@ -30565,7 +30517,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.523965982719356</v>
+        <v>1.545823879461351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.848977451529124</v>
@@ -30654,7 +30606,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535886211450056</v>
+        <v>1.558415975882253</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.114636724809203</v>
@@ -30743,7 +30695,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.534960600151739</v>
+        <v>1.556825841552371</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.980265961237632</v>
@@ -30832,7 +30784,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.511135011062049</v>
+        <v>1.533690521614989</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.061840932841165</v>
@@ -30921,7 +30873,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.505911029707702</v>
+        <v>1.528711911465963</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.0431348779035</v>
@@ -31010,7 +30962,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.503566562005806</v>
+        <v>1.524572176033845</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.120859753040691</v>
@@ -31099,7 +31051,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.488521757239364</v>
+        <v>1.506642590851094</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.802479355957336</v>
@@ -31188,7 +31140,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.480287979871164</v>
+        <v>1.495945136617491</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.687962902844649</v>
@@ -31277,7 +31229,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.459784574570841</v>
+        <v>1.469134035708141</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.798450751996297</v>
@@ -31366,7 +31318,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.447206647705197</v>
+        <v>1.454970351208439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.773087439167725</v>
@@ -31455,7 +31407,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.433343312623494</v>
+        <v>1.439578975366783</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.783709942731079</v>
@@ -31544,7 +31496,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.423831101165177</v>
+        <v>1.425596547529631</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.959737437565727</v>
@@ -31633,7 +31585,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.408961052939981</v>
+        <v>1.405106626238156</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.798559434817298</v>
@@ -31722,7 +31674,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.420362193929947</v>
+        <v>1.418607392425643</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.813280467827552</v>
@@ -31811,7 +31763,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.42025074216977</v>
+        <v>1.41657443515763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.854495618352953</v>
@@ -31900,7 +31852,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.419786919480597</v>
+        <v>1.413778419100397</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.856640196712863</v>
@@ -31989,7 +31941,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.418542073081809</v>
+        <v>1.413206171491442</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.96034331102001</v>
@@ -32078,7 +32030,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.42678010276696</v>
+        <v>1.416022013771401</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.46909317414645</v>
@@ -32167,7 +32119,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.450118697307343</v>
+        <v>1.446581291240455</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.13698197271931</v>
@@ -32256,7 +32208,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.480052263278497</v>
+        <v>1.480079901512944</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.87223108177394</v>
@@ -32345,7 +32297,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.477379743349785</v>
+        <v>1.474771084947603</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.077069895044335</v>
@@ -32434,7 +32386,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.488232173727557</v>
+        <v>1.487305662957516</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.410793438417781</v>
@@ -32523,7 +32475,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507909230035051</v>
+        <v>1.502897924230591</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.154357799137647</v>
@@ -32612,7 +32564,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.550074897811123</v>
+        <v>1.549815344620496</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.809299722608776</v>
@@ -32701,7 +32653,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.565172890609817</v>
+        <v>1.573762076147995</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.674889543565349</v>
@@ -32790,7 +32742,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594191954200535</v>
+        <v>1.6057905080647</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.771688247586905</v>
